--- a/biology/Zoologie/Holothuria_(Lessonothuria)/Holothuria_(Lessonothuria).xlsx
+++ b/biology/Zoologie/Holothuria_(Lessonothuria)/Holothuria_(Lessonothuria).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Lessonothuria) est un sous-genre de concombres de mer de la famille des Holothuriidae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des holothuries tropicales, présentes dans les océans Indien et Pacifique. La plupart des espèces sont petites, cylindriques mais avec un trivium aplati. Elles n'ont généralement pas de tubes de Cuvier.
-Elles sont équipées de 17 à 30 tentacules buccaux assez longs protégés par un anneau de longues papilles légèrement dures, et hérissées de fines papilles et de podia répartis de manière irrégulière sur tout le corps, mais formant un collier autour de la base des tentacules[2].
+Elles sont équipées de 17 à 30 tentacules buccaux assez longs protégés par un anneau de longues papilles légèrement dures, et hérissées de fines papilles et de podia répartis de manière irrégulière sur tout le corps, mais formant un collier autour de la base des tentacules.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Elisabeth Deichmann (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1]. 
-Selon World Register of Marine Species                               (24 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Historiquement, ce groupe fut proposé par Elisabeth Deichmann (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria. 
+Selon World Register of Marine Species                               (24 octobre 2016) :
 Holothuria cavans Massin &amp; Tomascik, 1996 -- Indonésie
 Holothuria cumulus Clark, 1921 -- Mozambique et Australie
 Holothuria duoturricula Cherbonnier, 1988 -- Madagascar
